--- a/TNR_JDD/JDD.RO.CCO.xlsx
+++ b/TNR_JDD/JDD.RO.CCO.xlsx
@@ -216,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -271,6 +271,12 @@
       <b/>
       <sz val="10.0"/>
       <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -374,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -416,8 +422,9 @@
     <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="7" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -2904,734 +2911,734 @@
       <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="20"/>
+      <c r="A100" s="21"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="21"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="20"/>
+      <c r="A117" s="21"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="20"/>
+      <c r="A118" s="21"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="20"/>
+      <c r="A119" s="21"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="20"/>
+      <c r="A120" s="21"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="20"/>
+      <c r="A121" s="21"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="20"/>
+      <c r="A124" s="21"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="20"/>
+      <c r="A125" s="21"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="20"/>
+      <c r="A127" s="21"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="20"/>
+      <c r="A128" s="21"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="20"/>
+      <c r="A129" s="21"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="20"/>
+      <c r="A130" s="21"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="20"/>
+      <c r="A131" s="21"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="20"/>
+      <c r="A132" s="21"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="20"/>
+      <c r="A133" s="21"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="20"/>
+      <c r="A134" s="21"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="20"/>
+      <c r="A135" s="21"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="20"/>
+      <c r="A136" s="21"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="20"/>
+      <c r="A137" s="21"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="20"/>
+      <c r="A138" s="21"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="20"/>
+      <c r="A139" s="21"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="20"/>
+      <c r="A140" s="21"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="20"/>
+      <c r="A141" s="21"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="20"/>
+      <c r="A142" s="21"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="20"/>
+      <c r="A143" s="21"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="20"/>
+      <c r="A144" s="21"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="20"/>
+      <c r="A145" s="21"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="20"/>
+      <c r="A146" s="21"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="20"/>
+      <c r="A147" s="21"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="20"/>
+      <c r="A148" s="21"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="20"/>
+      <c r="A149" s="21"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="20"/>
+      <c r="A150" s="21"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="20"/>
+      <c r="A151" s="21"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="20"/>
+      <c r="A152" s="21"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="20"/>
+      <c r="A153" s="21"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="20"/>
+      <c r="A154" s="21"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="20"/>
+      <c r="A155" s="21"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="20"/>
+      <c r="A156" s="21"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="20"/>
+      <c r="A157" s="21"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="20"/>
+      <c r="A158" s="21"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="20"/>
+      <c r="A159" s="21"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="20"/>
+      <c r="A160" s="21"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="20"/>
+      <c r="A161" s="21"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="20"/>
+      <c r="A162" s="21"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="20"/>
+      <c r="A163" s="21"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="20"/>
+      <c r="A164" s="21"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="20"/>
+      <c r="A165" s="21"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="20"/>
+      <c r="A166" s="21"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="20"/>
+      <c r="A167" s="21"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="20"/>
+      <c r="A168" s="21"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="20"/>
+      <c r="A169" s="21"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="20"/>
+      <c r="A170" s="21"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="20"/>
+      <c r="A171" s="21"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="20"/>
+      <c r="A172" s="21"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="20"/>
+      <c r="A173" s="21"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="20"/>
+      <c r="A174" s="21"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="20"/>
+      <c r="A175" s="21"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="20"/>
+      <c r="A176" s="21"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="20"/>
+      <c r="A177" s="21"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="20"/>
+      <c r="A178" s="21"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="20"/>
+      <c r="A179" s="21"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="20"/>
+      <c r="A180" s="21"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="20"/>
+      <c r="A181" s="21"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="20"/>
+      <c r="A182" s="21"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="20"/>
+      <c r="A183" s="21"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="20"/>
+      <c r="A184" s="21"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="20"/>
+      <c r="A185" s="21"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="20"/>
+      <c r="A186" s="21"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="20"/>
+      <c r="A187" s="21"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="20"/>
+      <c r="A188" s="21"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="20"/>
+      <c r="A189" s="21"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="20"/>
+      <c r="A190" s="21"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="20"/>
+      <c r="A191" s="21"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="20"/>
+      <c r="A192" s="21"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="20"/>
+      <c r="A193" s="21"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="20"/>
+      <c r="A194" s="21"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="20"/>
+      <c r="A195" s="21"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="20"/>
+      <c r="A196" s="21"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="20"/>
+      <c r="A197" s="21"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="21"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="20"/>
+      <c r="A199" s="21"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="20"/>
+      <c r="A200" s="21"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="21"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="20"/>
+      <c r="A202" s="21"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="20"/>
+      <c r="A203" s="21"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="21"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="20"/>
+      <c r="A205" s="21"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="21"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="20"/>
+      <c r="A207" s="21"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="20"/>
+      <c r="A208" s="21"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="20"/>
+      <c r="A209" s="21"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="20"/>
+      <c r="A210" s="21"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="20"/>
+      <c r="A211" s="21"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="20"/>
+      <c r="A212" s="21"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="20"/>
+      <c r="A213" s="21"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="20"/>
+      <c r="A214" s="21"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="20"/>
+      <c r="A215" s="21"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="20"/>
+      <c r="A216" s="21"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="20"/>
+      <c r="A217" s="21"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="20"/>
+      <c r="A218" s="21"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="20"/>
+      <c r="A219" s="21"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="20"/>
+      <c r="A220" s="21"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -4440,13 +4447,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5480,705 +5487,705 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="20"/>
+      <c r="A100" s="21"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="21"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="20"/>
+      <c r="A117" s="21"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="20"/>
+      <c r="A118" s="21"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="20"/>
+      <c r="A119" s="21"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="20"/>
+      <c r="A120" s="21"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="20"/>
+      <c r="A121" s="21"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="20"/>
+      <c r="A124" s="21"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="20"/>
+      <c r="A125" s="21"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="20"/>
+      <c r="A127" s="21"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="20"/>
+      <c r="A128" s="21"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="20"/>
+      <c r="A129" s="21"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="20"/>
+      <c r="A130" s="21"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="20"/>
+      <c r="A131" s="21"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="20"/>
+      <c r="A132" s="21"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="20"/>
+      <c r="A133" s="21"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="20"/>
+      <c r="A134" s="21"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="20"/>
+      <c r="A135" s="21"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="20"/>
+      <c r="A136" s="21"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="20"/>
+      <c r="A137" s="21"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="20"/>
+      <c r="A138" s="21"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="20"/>
+      <c r="A139" s="21"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="20"/>
+      <c r="A140" s="21"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="20"/>
+      <c r="A141" s="21"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="20"/>
+      <c r="A142" s="21"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="20"/>
+      <c r="A143" s="21"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="20"/>
+      <c r="A144" s="21"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="20"/>
+      <c r="A145" s="21"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="20"/>
+      <c r="A146" s="21"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="20"/>
+      <c r="A147" s="21"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="20"/>
+      <c r="A148" s="21"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="20"/>
+      <c r="A149" s="21"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="20"/>
+      <c r="A150" s="21"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="20"/>
+      <c r="A151" s="21"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="20"/>
+      <c r="A152" s="21"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="20"/>
+      <c r="A153" s="21"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="20"/>
+      <c r="A154" s="21"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="20"/>
+      <c r="A155" s="21"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="20"/>
+      <c r="A156" s="21"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="20"/>
+      <c r="A157" s="21"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="20"/>
+      <c r="A158" s="21"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="20"/>
+      <c r="A159" s="21"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="20"/>
+      <c r="A160" s="21"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="20"/>
+      <c r="A161" s="21"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="20"/>
+      <c r="A162" s="21"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="20"/>
+      <c r="A163" s="21"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="20"/>
+      <c r="A164" s="21"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="20"/>
+      <c r="A165" s="21"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="20"/>
+      <c r="A166" s="21"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="20"/>
+      <c r="A167" s="21"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="20"/>
+      <c r="A168" s="21"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="20"/>
+      <c r="A169" s="21"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="20"/>
+      <c r="A170" s="21"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="20"/>
+      <c r="A171" s="21"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="20"/>
+      <c r="A172" s="21"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="20"/>
+      <c r="A173" s="21"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="20"/>
+      <c r="A174" s="21"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="20"/>
+      <c r="A175" s="21"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="20"/>
+      <c r="A176" s="21"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="20"/>
+      <c r="A177" s="21"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="20"/>
+      <c r="A178" s="21"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="20"/>
+      <c r="A179" s="21"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="20"/>
+      <c r="A180" s="21"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="20"/>
+      <c r="A181" s="21"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="20"/>
+      <c r="A182" s="21"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="20"/>
+      <c r="A183" s="21"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="20"/>
+      <c r="A184" s="21"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="20"/>
+      <c r="A185" s="21"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="20"/>
+      <c r="A186" s="21"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="20"/>
+      <c r="A187" s="21"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="20"/>
+      <c r="A188" s="21"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="20"/>
+      <c r="A189" s="21"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="20"/>
+      <c r="A190" s="21"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="20"/>
+      <c r="A191" s="21"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="20"/>
+      <c r="A192" s="21"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="20"/>
+      <c r="A193" s="21"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="20"/>
+      <c r="A194" s="21"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="20"/>
+      <c r="A195" s="21"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="20"/>
+      <c r="A196" s="21"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="20"/>
+      <c r="A197" s="21"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="21"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="20"/>
+      <c r="A199" s="21"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="20"/>
+      <c r="A200" s="21"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="21"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="20"/>
+      <c r="A202" s="21"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="20"/>
+      <c r="A203" s="21"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="21"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="20"/>
+      <c r="A205" s="21"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="21"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="20"/>
+      <c r="A207" s="21"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="20"/>
+      <c r="A208" s="21"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="20"/>
+      <c r="A209" s="21"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="20"/>
+      <c r="A210" s="21"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="20"/>
+      <c r="A211" s="21"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="20"/>
+      <c r="A212" s="21"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="20"/>
+      <c r="A213" s="21"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="20"/>
+      <c r="A214" s="21"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="20"/>
+      <c r="A215" s="21"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="20"/>
+      <c r="A216" s="21"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="20"/>
+      <c r="A217" s="21"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="20"/>
+      <c r="A218" s="21"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="20"/>
+      <c r="A219" s="21"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="20"/>
+      <c r="A220" s="21"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
